--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ngf-Ngfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ngf-Ngfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
     <t>Ngf</t>
   </si>
   <si>
     <t>Ngfr</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.658241666666667</v>
+        <v>4.5666645</v>
       </c>
       <c r="H2">
-        <v>10.974725</v>
+        <v>9.133329</v>
       </c>
       <c r="I2">
-        <v>0.2093988336068688</v>
+        <v>0.156583237611307</v>
       </c>
       <c r="J2">
-        <v>0.2730291219287808</v>
+        <v>0.1473423006975575</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.2530545</v>
+        <v>0.337665</v>
       </c>
       <c r="N2">
-        <v>24.506109</v>
+        <v>0.67533</v>
       </c>
       <c r="O2">
-        <v>0.9608496608412348</v>
+        <v>0.01438349055657064</v>
       </c>
       <c r="P2">
-        <v>0.9424019822271915</v>
+        <v>0.0143657952272707</v>
       </c>
       <c r="Q2">
-        <v>44.8246345158375</v>
+        <v>1.5420027683925</v>
       </c>
       <c r="R2">
-        <v>268.947807095025</v>
+        <v>6.16801107357</v>
       </c>
       <c r="S2">
-        <v>0.20120079825171</v>
+        <v>0.00225221351949949</v>
       </c>
       <c r="T2">
-        <v>0.2573031857114326</v>
+        <v>0.002116689320136056</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.658241666666667</v>
+        <v>4.5666645</v>
       </c>
       <c r="H3">
-        <v>10.974725</v>
+        <v>9.133329</v>
       </c>
       <c r="I3">
-        <v>0.2093988336068688</v>
+        <v>0.156583237611307</v>
       </c>
       <c r="J3">
-        <v>0.2730291219287808</v>
+        <v>0.1473423006975575</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.241569</v>
+        <v>0.05783366666666667</v>
       </c>
       <c r="N3">
-        <v>0.7247070000000001</v>
+        <v>0.173501</v>
       </c>
       <c r="O3">
-        <v>0.0189431534577567</v>
+        <v>0.002463536340313192</v>
       </c>
       <c r="P3">
-        <v>0.0278691861418686</v>
+        <v>0.003690758351808291</v>
       </c>
       <c r="Q3">
-        <v>0.8837177811750001</v>
+        <v>0.2641069524715</v>
       </c>
       <c r="R3">
-        <v>7.953460030575001</v>
+        <v>1.584641714829</v>
       </c>
       <c r="S3">
-        <v>0.003966674238890176</v>
+        <v>0.0003857484961393501</v>
       </c>
       <c r="T3">
-        <v>0.007609099421184129</v>
+        <v>0.000543804826874159</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.658241666666667</v>
+        <v>4.5666645</v>
       </c>
       <c r="H4">
-        <v>10.974725</v>
+        <v>9.133329</v>
       </c>
       <c r="I4">
-        <v>0.2093988336068688</v>
+        <v>0.156583237611307</v>
       </c>
       <c r="J4">
-        <v>0.2730291219287808</v>
+        <v>0.1473423006975575</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2576883333333334</v>
+        <v>23.0803745</v>
       </c>
       <c r="N4">
-        <v>0.7730650000000001</v>
+        <v>46.160749</v>
       </c>
       <c r="O4">
-        <v>0.02020718570100838</v>
+        <v>0.9831529731031161</v>
       </c>
       <c r="P4">
-        <v>0.02972883163094002</v>
+        <v>0.981943446420921</v>
       </c>
       <c r="Q4">
-        <v>0.942686198013889</v>
+        <v>105.4003268758552</v>
       </c>
       <c r="R4">
-        <v>8.484175782125</v>
+        <v>421.601307503421</v>
       </c>
       <c r="S4">
-        <v>0.004231361116268552</v>
+        <v>0.1539452755956681</v>
       </c>
       <c r="T4">
-        <v>0.008116836796164116</v>
+        <v>0.1446818065505473</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.214461</v>
+        <v>3.658241666666667</v>
       </c>
       <c r="H5">
-        <v>24.428922</v>
+        <v>10.974725</v>
       </c>
       <c r="I5">
-        <v>0.6991593556658381</v>
+        <v>0.1254349480088258</v>
       </c>
       <c r="J5">
-        <v>0.6077425287036053</v>
+        <v>0.1770483939670849</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.2530545</v>
+        <v>0.337665</v>
       </c>
       <c r="N5">
-        <v>24.506109</v>
+        <v>0.67533</v>
       </c>
       <c r="O5">
-        <v>0.9608496608412348</v>
+        <v>0.01438349055657064</v>
       </c>
       <c r="P5">
-        <v>0.9424019822271915</v>
+        <v>0.0143657952272707</v>
       </c>
       <c r="Q5">
-        <v>149.6644563211245</v>
+        <v>1.235260172375</v>
       </c>
       <c r="R5">
-        <v>598.657825284498</v>
+        <v>7.411561034249999</v>
       </c>
       <c r="S5">
-        <v>0.6717870297654968</v>
+        <v>0.001804192390148874</v>
       </c>
       <c r="T5">
-        <v>0.5727377637340435</v>
+        <v>0.002543440973048291</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.214461</v>
+        <v>3.658241666666667</v>
       </c>
       <c r="H6">
-        <v>24.428922</v>
+        <v>10.974725</v>
       </c>
       <c r="I6">
-        <v>0.6991593556658381</v>
+        <v>0.1254349480088258</v>
       </c>
       <c r="J6">
-        <v>0.6077425287036053</v>
+        <v>0.1770483939670849</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.241569</v>
+        <v>0.05783366666666667</v>
       </c>
       <c r="N6">
-        <v>0.7247070000000001</v>
+        <v>0.173501</v>
       </c>
       <c r="O6">
-        <v>0.0189431534577567</v>
+        <v>0.002463536340313192</v>
       </c>
       <c r="P6">
-        <v>0.0278691861418686</v>
+        <v>0.003690758351808291</v>
       </c>
       <c r="Q6">
-        <v>2.950635129309001</v>
+        <v>0.2115695291361111</v>
       </c>
       <c r="R6">
-        <v>17.703810775854</v>
+        <v>1.904125762225</v>
       </c>
       <c r="S6">
-        <v>0.01324428296580427</v>
+        <v>0.0003090135527650382</v>
       </c>
       <c r="T6">
-        <v>0.0169372896587707</v>
+        <v>0.0006534428387082635</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.214461</v>
+        <v>3.658241666666667</v>
       </c>
       <c r="H7">
-        <v>24.428922</v>
+        <v>10.974725</v>
       </c>
       <c r="I7">
-        <v>0.6991593556658381</v>
+        <v>0.1254349480088258</v>
       </c>
       <c r="J7">
-        <v>0.6077425287036053</v>
+        <v>0.1770483939670849</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2576883333333334</v>
+        <v>23.0803745</v>
       </c>
       <c r="N7">
-        <v>0.7730650000000001</v>
+        <v>46.160749</v>
       </c>
       <c r="O7">
-        <v>0.02020718570100838</v>
+        <v>0.9831529731031161</v>
       </c>
       <c r="P7">
-        <v>0.02972883163094002</v>
+        <v>0.981943446420921</v>
       </c>
       <c r="Q7">
-        <v>3.147524097655</v>
+        <v>84.43358767817082</v>
       </c>
       <c r="R7">
-        <v>18.88514458593</v>
+        <v>506.6015260690249</v>
       </c>
       <c r="S7">
-        <v>0.01412804293453696</v>
+        <v>0.1233217420659118</v>
       </c>
       <c r="T7">
-        <v>0.01806747531079121</v>
+        <v>0.1738515101553284</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,31 +894,31 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>1.506631333333333</v>
+        <v>20.939547</v>
       </c>
       <c r="H8">
-        <v>4.519894</v>
+        <v>41.87909399999999</v>
       </c>
       <c r="I8">
-        <v>0.08624002256336123</v>
+        <v>0.7179818143798673</v>
       </c>
       <c r="J8">
-        <v>0.1124458872574178</v>
+        <v>0.6756093053353576</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.2530545</v>
+        <v>0.337665</v>
       </c>
       <c r="N8">
-        <v>24.506109</v>
+        <v>0.67533</v>
       </c>
       <c r="O8">
-        <v>0.9608496608412348</v>
+        <v>0.01438349055657064</v>
       </c>
       <c r="P8">
-        <v>0.9424019822271915</v>
+        <v>0.0143657952272707</v>
       </c>
       <c r="Q8">
-        <v>18.460835838741</v>
+        <v>7.070552137754999</v>
       </c>
       <c r="R8">
-        <v>110.765015032446</v>
+        <v>28.28220855101999</v>
       </c>
       <c r="S8">
-        <v>0.08286369643094607</v>
+        <v>0.01032708464692227</v>
       </c>
       <c r="T8">
-        <v>0.1059692270446858</v>
+        <v>0.009705664934086353</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>1.506631333333333</v>
+        <v>20.939547</v>
       </c>
       <c r="H9">
-        <v>4.519894</v>
+        <v>41.87909399999999</v>
       </c>
       <c r="I9">
-        <v>0.08624002256336123</v>
+        <v>0.7179818143798673</v>
       </c>
       <c r="J9">
-        <v>0.1124458872574178</v>
+        <v>0.6756093053353576</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.241569</v>
+        <v>0.05783366666666667</v>
       </c>
       <c r="N9">
-        <v>0.7247070000000001</v>
+        <v>0.173501</v>
       </c>
       <c r="O9">
-        <v>0.0189431534577567</v>
+        <v>0.002463536340313192</v>
       </c>
       <c r="P9">
-        <v>0.0278691861418686</v>
+        <v>0.003690758351808291</v>
       </c>
       <c r="Q9">
-        <v>0.363955424562</v>
+        <v>1.211010781349</v>
       </c>
       <c r="R9">
-        <v>3.275598821058</v>
+        <v>7.266064688093999</v>
       </c>
       <c r="S9">
-        <v>0.001633657981618152</v>
+        <v>0.001768774291408804</v>
       </c>
       <c r="T9">
-        <v>0.003133775362864547</v>
+        <v>0.002493510686225869</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,247 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1.506631333333333</v>
+        <v>20.939547</v>
       </c>
       <c r="H10">
-        <v>4.519894</v>
+        <v>41.87909399999999</v>
       </c>
       <c r="I10">
-        <v>0.08624002256336123</v>
+        <v>0.7179818143798673</v>
       </c>
       <c r="J10">
-        <v>0.1124458872574178</v>
+        <v>0.6756093053353576</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2576883333333334</v>
+        <v>23.0803745</v>
       </c>
       <c r="N10">
-        <v>0.7730650000000001</v>
+        <v>46.160749</v>
       </c>
       <c r="O10">
-        <v>0.02020718570100838</v>
+        <v>0.9831529731031161</v>
       </c>
       <c r="P10">
-        <v>0.02972883163094002</v>
+        <v>0.981943446420921</v>
       </c>
       <c r="Q10">
-        <v>0.3882413172344444</v>
+        <v>483.2925866203514</v>
       </c>
       <c r="R10">
-        <v>3.49417185511</v>
+        <v>1933.170346481406</v>
       </c>
       <c r="S10">
-        <v>0.001742668150796993</v>
+        <v>0.7058859554415362</v>
       </c>
       <c r="T10">
-        <v>0.003342884849867437</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.09087633333333334</v>
-      </c>
-      <c r="H11">
-        <v>0.272629</v>
-      </c>
-      <c r="I11">
-        <v>0.005201788163931856</v>
-      </c>
-      <c r="J11">
-        <v>0.006782462110196071</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>12.2530545</v>
-      </c>
-      <c r="N11">
-        <v>24.506109</v>
-      </c>
-      <c r="O11">
-        <v>0.9608496608412348</v>
-      </c>
-      <c r="P11">
-        <v>0.9424019822271915</v>
-      </c>
-      <c r="Q11">
-        <v>1.1135126650935</v>
-      </c>
-      <c r="R11">
-        <v>6.681075990561001</v>
-      </c>
-      <c r="S11">
-        <v>0.004998136393081873</v>
-      </c>
-      <c r="T11">
-        <v>0.006391805737029597</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.09087633333333334</v>
-      </c>
-      <c r="H12">
-        <v>0.272629</v>
-      </c>
-      <c r="I12">
-        <v>0.005201788163931856</v>
-      </c>
-      <c r="J12">
-        <v>0.006782462110196071</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M12">
-        <v>0.241569</v>
-      </c>
-      <c r="N12">
-        <v>0.7247070000000001</v>
-      </c>
-      <c r="O12">
-        <v>0.0189431534577567</v>
-      </c>
-      <c r="P12">
-        <v>0.0278691861418686</v>
-      </c>
-      <c r="Q12">
-        <v>0.021952904967</v>
-      </c>
-      <c r="R12">
-        <v>0.197576144703</v>
-      </c>
-      <c r="S12">
-        <v>9.85382714441036E-05</v>
-      </c>
-      <c r="T12">
-        <v>0.0001890216990492252</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.09087633333333334</v>
-      </c>
-      <c r="H13">
-        <v>0.272629</v>
-      </c>
-      <c r="I13">
-        <v>0.005201788163931856</v>
-      </c>
-      <c r="J13">
-        <v>0.006782462110196071</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M13">
-        <v>0.2576883333333334</v>
-      </c>
-      <c r="N13">
-        <v>0.7730650000000001</v>
-      </c>
-      <c r="O13">
-        <v>0.02020718570100838</v>
-      </c>
-      <c r="P13">
-        <v>0.02972883163094002</v>
-      </c>
-      <c r="Q13">
-        <v>0.02341777087611112</v>
-      </c>
-      <c r="R13">
-        <v>0.210759937885</v>
-      </c>
-      <c r="S13">
-        <v>0.0001051134994058784</v>
-      </c>
-      <c r="T13">
-        <v>0.0002016346741172491</v>
+        <v>0.6634101297150453</v>
       </c>
     </row>
   </sheetData>
